--- a/data/loinc_dataset-v2_1.xlsx
+++ b/data/loinc_dataset-v2_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Downloads\AI_and_Data_Science\2 Semester\Information_Retrieval\Information_Retrieval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D768A-4B3F-4297-824F-0BDD1D62E4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF502E8-81B2-4A7D-B8EB-E2BBE1F4A93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,11 @@
     <sheet name="bilirubin in plasma" sheetId="2" r:id="rId2"/>
     <sheet name="White blood cells count" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'bilirubin in plasma'!$A$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'glucose in blood'!$A$1:$A$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'White blood cells count'!$A$1:$A$68</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="433">
   <si>
     <t>14749-6</t>
   </si>
@@ -699,6 +704,633 @@
   </si>
   <si>
     <t>Bld^BPU</t>
+  </si>
+  <si>
+    <t>96045-0</t>
+  </si>
+  <si>
+    <t>62851-1</t>
+  </si>
+  <si>
+    <t>79469-3</t>
+  </si>
+  <si>
+    <t>74542-2</t>
+  </si>
+  <si>
+    <t>62850-3</t>
+  </si>
+  <si>
+    <t>71593-8</t>
+  </si>
+  <si>
+    <t>2356-4</t>
+  </si>
+  <si>
+    <t>49502-8</t>
+  </si>
+  <si>
+    <t>74469-8</t>
+  </si>
+  <si>
+    <t>32779-1</t>
+  </si>
+  <si>
+    <t>2357-2</t>
+  </si>
+  <si>
+    <t>32546-4</t>
+  </si>
+  <si>
+    <t>49266-0</t>
+  </si>
+  <si>
+    <t>42319-4</t>
+  </si>
+  <si>
+    <t>33287-4</t>
+  </si>
+  <si>
+    <t>58089-4</t>
+  </si>
+  <si>
+    <t>49925-1</t>
+  </si>
+  <si>
+    <t>49926-9</t>
+  </si>
+  <si>
+    <t>58091-0</t>
+  </si>
+  <si>
+    <t>58090-2</t>
+  </si>
+  <si>
+    <t>2360-6</t>
+  </si>
+  <si>
+    <t>21681-2</t>
+  </si>
+  <si>
+    <t>21680-4</t>
+  </si>
+  <si>
+    <t>94231-8</t>
+  </si>
+  <si>
+    <t>54234-0</t>
+  </si>
+  <si>
+    <t>54230-8</t>
+  </si>
+  <si>
+    <t>49862-6</t>
+  </si>
+  <si>
+    <t>Osmotic fragility^10% glucose 48H 37 deg C incubation</t>
+  </si>
+  <si>
+    <t>PhenX - fasting plasma glucose for diabetes screening - blood draw protocol 140801</t>
+  </si>
+  <si>
+    <t>Uridine diphosphate glucose-4-Epimerase</t>
+  </si>
+  <si>
+    <t>Pyruvate kinase/Glucose-6-Phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>PhenX measure - fasting plasma glucose for diabetes screening - blood draw</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase/Pyruvate kinase</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphatase</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase phenotype</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase newborn screen panel</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase newborn screening comment-discussion</t>
+  </si>
+  <si>
+    <t>G6PD gene mutations tested for</t>
+  </si>
+  <si>
+    <t>G6PD gene targeted mutation analysis</t>
+  </si>
+  <si>
+    <t>G6PD gene full mutation analysis</t>
+  </si>
+  <si>
+    <t>Cell count &amp; Differential panel with Glucose &amp; Protein</t>
+  </si>
+  <si>
+    <t>G6PC gene targeted mutation analysis</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CCnt</t>
+  </si>
+  <si>
+    <t>CRto</t>
+  </si>
+  <si>
+    <t>CSub</t>
+  </si>
+  <si>
+    <t>EntCat</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Txt</t>
+  </si>
+  <si>
+    <t>Prid</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>RBC</t>
+  </si>
+  <si>
+    <t>Bld.dot</t>
+  </si>
+  <si>
+    <t>WBC</t>
+  </si>
+  <si>
+    <t>Bld/Tiss</t>
+  </si>
+  <si>
+    <t>Body fld</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>Osmotic fragility of Red Blood Cells--10% glucose 48 hour 37 degree C incubation</t>
+  </si>
+  <si>
+    <t>Uridine diphosphate glucose-4-Epimerase [Enzymatic activity/mass] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Pyruvate kinase/Glucose-6-Phosphate dehydrogenase [Enzymatic activity ratio] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Deprecated PhenX measure - fasting plasma glucose for diabetes screening - blood draw</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Enzymatic activity/substance] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Presence] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Entitic Catalytic Activity] in Blood</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase/Pyruvate kinase [Ratio] in Blood</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphatase [Enzymatic activity/volume] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Enzymatic activity/volume] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Enzymatic activity/mass] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase phenotype [Interpretation] in Red Blood Cells Narrative</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase phenotype [Interpretation] in Red Blood Cells</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Presence] in DBS</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase newborn screen interpretation</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Enzymatic activity/mass] in Red Blood Cells by Glock and McLean</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Enzymatic activity/mass] in Red Blood Cells by WHO method</t>
+  </si>
+  <si>
+    <t>Glucose-6-Phosphate dehydrogenase [Enzymatic activity/volume] in Leukocytes</t>
+  </si>
+  <si>
+    <t>G6PD gene mutations tested for in Blood or Tissue by Molecular genetics method Nominal</t>
+  </si>
+  <si>
+    <t>G6PD gene mutations found [Identifier] in Blood or Tissue by Molecular genetics method Nominal</t>
+  </si>
+  <si>
+    <t>G6PD gene full mutation analysis in Blood or Tissue by Sequencing</t>
+  </si>
+  <si>
+    <t>Cell count and Diff panel with Gluc and Prot - Body fluid</t>
+  </si>
+  <si>
+    <t>Cell count and Diff panel with Gluc and Prot - Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>G6PC gene targeted mutation analysis in Blood or Tissue by Molecular genetics method</t>
+  </si>
+  <si>
+    <t>33898-8</t>
+  </si>
+  <si>
+    <t>33899-6</t>
+  </si>
+  <si>
+    <t>50189-0</t>
+  </si>
+  <si>
+    <t>14630-8</t>
+  </si>
+  <si>
+    <t>15153-0</t>
+  </si>
+  <si>
+    <t>35672-5</t>
+  </si>
+  <si>
+    <t>34442-4</t>
+  </si>
+  <si>
+    <t>34543-9</t>
+  </si>
+  <si>
+    <t>35191-6</t>
+  </si>
+  <si>
+    <t>43820-0</t>
+  </si>
+  <si>
+    <t>14629-0</t>
+  </si>
+  <si>
+    <t>18264-2</t>
+  </si>
+  <si>
+    <t>15152-2</t>
+  </si>
+  <si>
+    <t>29760-6</t>
+  </si>
+  <si>
+    <t>14631-6</t>
+  </si>
+  <si>
+    <t>35194-0</t>
+  </si>
+  <si>
+    <t>77137-8</t>
+  </si>
+  <si>
+    <t>1969-5</t>
+  </si>
+  <si>
+    <t>1970-3</t>
+  </si>
+  <si>
+    <t>22665-4</t>
+  </si>
+  <si>
+    <t>Bilirubin.conjugated+indirect [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.conjugated+indirect [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Neonatal bilirubin panel [Mass/volume] - Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.indirect [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Deprecated Indirect bilirubin [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.direct/Bilirubin.total in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.conjugated/Bilirubin.total in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin direct and total panel [Mass/volume] - Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.direct [Mass or Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.direct [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.direct [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Deprecated Direct bilirubin [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.conjugated [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.conjugated [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Mass or Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Moles/volume] in Serum, Plasma or Blood</t>
+  </si>
+  <si>
+    <t>Bilirubin.total renal clearance in 24 hour Urine and Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.delta [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.delta [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.glucuronidated+Bilirubin.non-glucuronidated</t>
+  </si>
+  <si>
+    <t>Neonatal bilirubin panel</t>
+  </si>
+  <si>
+    <t>Bilirubin.glucuronidated+Bilirubin.albumin bound/Bilirubin.total</t>
+  </si>
+  <si>
+    <t>Bilirubin.glucuronidated/Bilirubin.total</t>
+  </si>
+  <si>
+    <t>Bilirubin direct &amp; total panel</t>
+  </si>
+  <si>
+    <t>Bilirubin.glucuronidated</t>
+  </si>
+  <si>
+    <t>Bilirubin renal clearance</t>
+  </si>
+  <si>
+    <t>Bilirubin.albumin bound</t>
+  </si>
+  <si>
+    <t>Urine+Ser/Plas</t>
+  </si>
+  <si>
+    <t>VRat</t>
+  </si>
+  <si>
+    <t>33386-4</t>
+  </si>
+  <si>
+    <t>14039-2</t>
+  </si>
+  <si>
+    <t>54413-0</t>
+  </si>
+  <si>
+    <t>54415-5</t>
+  </si>
+  <si>
+    <t>30420-4</t>
+  </si>
+  <si>
+    <t>13046-8</t>
+  </si>
+  <si>
+    <t>74459-9</t>
+  </si>
+  <si>
+    <t>26508-2</t>
+  </si>
+  <si>
+    <t>6291-9</t>
+  </si>
+  <si>
+    <t>27906-7</t>
+  </si>
+  <si>
+    <t>33371-6</t>
+  </si>
+  <si>
+    <t>30118-4</t>
+  </si>
+  <si>
+    <t>30120-0</t>
+  </si>
+  <si>
+    <t>30113-5</t>
+  </si>
+  <si>
+    <t>30119-2</t>
+  </si>
+  <si>
+    <t>4523-7</t>
+  </si>
+  <si>
+    <t>6290-1</t>
+  </si>
+  <si>
+    <t>6294-3</t>
+  </si>
+  <si>
+    <t>4496-6</t>
+  </si>
+  <si>
+    <t>4525-2</t>
+  </si>
+  <si>
+    <t>1766-5</t>
+  </si>
+  <si>
+    <t>30438-6</t>
+  </si>
+  <si>
+    <t>69017-2</t>
+  </si>
+  <si>
+    <t>26510-8</t>
+  </si>
+  <si>
+    <t>26509-0</t>
+  </si>
+  <si>
+    <t>33361-7</t>
+  </si>
+  <si>
+    <t>30453-5</t>
+  </si>
+  <si>
+    <t>26506-6</t>
+  </si>
+  <si>
+    <t>Monocytes+Macrophages/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Granulocytes.immature/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Neutrophils.band form/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Neutrophils.segmented/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Neutrophils/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Transfuse leukocyte-poor plateletpheresis units</t>
+  </si>
+  <si>
+    <t>Transfuse leukocyte-poor platelets units</t>
+  </si>
+  <si>
+    <t>Lymphocytes.large granular/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Lymphocytes.variant/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Complement iC3b receptors</t>
+  </si>
+  <si>
+    <t>Lymphocytes.immature/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Lymphocytes.IgA</t>
+  </si>
+  <si>
+    <t>Lymphocytes.IgD</t>
+  </si>
+  <si>
+    <t>Lymphocytes.IgG</t>
+  </si>
+  <si>
+    <t>Lymphocytes.IgM</t>
+  </si>
+  <si>
+    <t>Complement membrane C3b-C4b cofactor protein</t>
+  </si>
+  <si>
+    <t>Complement C3d-C3d+Gg-IC3b receptors</t>
+  </si>
+  <si>
+    <t>Aldosterone receptors</t>
+  </si>
+  <si>
+    <t>Bld^Fetus</t>
+  </si>
+  <si>
+    <t>Amnio fld</t>
+  </si>
+  <si>
+    <t>EntNum</t>
+  </si>
+  <si>
+    <t>Monocytes+Macrophages/100 leukocytes in Synovial fluid</t>
+  </si>
+  <si>
+    <t>Immature granulocytes/100 leukocytes in Synovial fluid</t>
+  </si>
+  <si>
+    <t>Band form neutrophils/100 leukocytes in Body fluid</t>
+  </si>
+  <si>
+    <t>Band form neutrophils/100 leukocytes in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>Band form neutrophils/100 leukocytes in Synovial fluid</t>
+  </si>
+  <si>
+    <t>Segmented neutrophils/100 leukocytes in Body fluid</t>
+  </si>
+  <si>
+    <t>Segmented neutrophils/100 leukocytes in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>Segmented neutrophils/100 leukocytes in Synovial fluid</t>
+  </si>
+  <si>
+    <t>Neutrophils/100 leukocytes in Cerebral spinal fluid by Microscopy</t>
+  </si>
+  <si>
+    <t>Transfuse leukocyte-poor plateletpheresis units [#]</t>
+  </si>
+  <si>
+    <t>Transfuse leukocyte-poor platelets units [#]</t>
+  </si>
+  <si>
+    <t>Large granular lymphocytes/100 leukocytes in Blood</t>
+  </si>
+  <si>
+    <t>Variant lymphocytes/100 leukocytes in Blood</t>
+  </si>
+  <si>
+    <t>Immature granulocytes/100 leukocytes in Blood from Fetus</t>
+  </si>
+  <si>
+    <t>Band form neutrophils/100 leukocytes in Blood</t>
+  </si>
+  <si>
+    <t>Complement iC3b receptors [Presence] in Leukocytes</t>
+  </si>
+  <si>
+    <t>Immature lymphocytes/100 leukocytes in Amniotic fluid</t>
+  </si>
+  <si>
+    <t>Variant lymphocytes/100 leukocytes in Synovial fluid</t>
+  </si>
+  <si>
+    <t>IgA lymphocytes [#/volume] in Leukocytes</t>
+  </si>
+  <si>
+    <t>IgD lymphocytes [#/volume] in Leukocytes</t>
+  </si>
+  <si>
+    <t>IgG lymphocytes [#/volume] in Leukocytes</t>
+  </si>
+  <si>
+    <t>IgM lymphocytes [#/volume] in Leukocytes</t>
+  </si>
+  <si>
+    <t>Complement iC3b receptors [Entitic number] in Leukocytes</t>
+  </si>
+  <si>
+    <t>Complement membrane C3b-C4b cofactor protein [Presence] in Leukocytes</t>
+  </si>
+  <si>
+    <t>Deprecated Complement C3d-C3d+Gg-IC3b receptors [Entitic number] in Leukocytes</t>
+  </si>
+  <si>
+    <t>Deprecated Complement C3d-C3d+Gg-IC3b receptors [Presence] in Leukocytes</t>
+  </si>
+  <si>
+    <t>Complement membrane C3b-C4b cofactor protein [Entitic number] in Leukocytes</t>
+  </si>
+  <si>
+    <t>Aldosterone receptors [#] in Leukocytes</t>
   </si>
 </sst>
 </file>
@@ -1047,9 +1679,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2212,7 +2846,467 @@
         <v>112</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" t="s">
+        <v>276</v>
+      </c>
+      <c r="E80" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
+        <v>276</v>
+      </c>
+      <c r="E81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B83" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" t="s">
+        <v>277</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s">
+        <v>277</v>
+      </c>
+      <c r="E84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" t="s">
+        <v>276</v>
+      </c>
+      <c r="E85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" t="s">
+        <v>298</v>
+      </c>
+      <c r="C86" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" t="s">
+        <v>276</v>
+      </c>
+      <c r="E86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" t="s">
+        <v>277</v>
+      </c>
+      <c r="E87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B88" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" t="s">
+        <v>277</v>
+      </c>
+      <c r="E88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92" t="s">
+        <v>302</v>
+      </c>
+      <c r="C92" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" t="s">
+        <v>279</v>
+      </c>
+      <c r="E92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>248</v>
+      </c>
+      <c r="B93" t="s">
+        <v>303</v>
+      </c>
+      <c r="C93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" t="s">
+        <v>304</v>
+      </c>
+      <c r="C94" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" t="s">
+        <v>279</v>
+      </c>
+      <c r="E95" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A95" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2223,9 +3317,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3388,7 +4484,416 @@
         <v>36</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" t="s">
+        <v>346</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" t="s">
+        <v>346</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" t="s">
+        <v>329</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>310</v>
+      </c>
+      <c r="B75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" t="s">
+        <v>331</v>
+      </c>
+      <c r="C76" t="s">
+        <v>348</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C77" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" t="s">
+        <v>333</v>
+      </c>
+      <c r="C78" t="s">
+        <v>350</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>315</v>
+      </c>
+      <c r="B81" t="s">
+        <v>335</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" t="s">
+        <v>336</v>
+      </c>
+      <c r="C82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>318</v>
+      </c>
+      <c r="B84" t="s">
+        <v>338</v>
+      </c>
+      <c r="C84" t="s">
+        <v>351</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>320</v>
+      </c>
+      <c r="B86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>322</v>
+      </c>
+      <c r="B89" t="s">
+        <v>342</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>323</v>
+      </c>
+      <c r="B90" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
+      </c>
+      <c r="D90" t="s">
+        <v>354</v>
+      </c>
+      <c r="E90" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>324</v>
+      </c>
+      <c r="B91" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" t="s">
+        <v>353</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" t="s">
+        <v>353</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E92" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3399,9 +4904,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B96"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4564,7 +6071,484 @@
         <v>112</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>377</v>
+      </c>
+      <c r="B69" t="s">
+        <v>405</v>
+      </c>
+      <c r="C69" t="s">
+        <v>384</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" t="s">
+        <v>406</v>
+      </c>
+      <c r="C70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" t="s">
+        <v>407</v>
+      </c>
+      <c r="C71" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" t="s">
+        <v>280</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>380</v>
+      </c>
+      <c r="B72" t="s">
+        <v>408</v>
+      </c>
+      <c r="C72" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>381</v>
+      </c>
+      <c r="B73" t="s">
+        <v>409</v>
+      </c>
+      <c r="C73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>382</v>
+      </c>
+      <c r="B74" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>383</v>
+      </c>
+      <c r="B75" t="s">
+        <v>411</v>
+      </c>
+      <c r="C75" t="s">
+        <v>387</v>
+      </c>
+      <c r="D75" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" t="s">
+        <v>412</v>
+      </c>
+      <c r="C76" t="s">
+        <v>387</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>357</v>
+      </c>
+      <c r="B77" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" t="s">
+        <v>388</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" t="s">
+        <v>415</v>
+      </c>
+      <c r="C79" t="s">
+        <v>390</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B80" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" t="s">
+        <v>417</v>
+      </c>
+      <c r="C81" t="s">
+        <v>392</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>362</v>
+      </c>
+      <c r="B82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" t="s">
+        <v>402</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>363</v>
+      </c>
+      <c r="B83" t="s">
+        <v>419</v>
+      </c>
+      <c r="C83" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" t="s">
+        <v>420</v>
+      </c>
+      <c r="C84" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" t="s">
+        <v>421</v>
+      </c>
+      <c r="C85" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85" t="s">
+        <v>403</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>366</v>
+      </c>
+      <c r="B86" t="s">
+        <v>422</v>
+      </c>
+      <c r="C86" t="s">
+        <v>392</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" t="s">
+        <v>395</v>
+      </c>
+      <c r="D87" t="s">
+        <v>278</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" t="s">
+        <v>424</v>
+      </c>
+      <c r="C88" t="s">
+        <v>396</v>
+      </c>
+      <c r="D88" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" t="s">
+        <v>425</v>
+      </c>
+      <c r="C89" t="s">
+        <v>397</v>
+      </c>
+      <c r="D89" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" t="s">
+        <v>426</v>
+      </c>
+      <c r="C90" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" t="s">
+        <v>427</v>
+      </c>
+      <c r="C91" t="s">
+        <v>393</v>
+      </c>
+      <c r="D91" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92" t="s">
+        <v>428</v>
+      </c>
+      <c r="C92" t="s">
+        <v>399</v>
+      </c>
+      <c r="D92" t="s">
+        <v>278</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>373</v>
+      </c>
+      <c r="B93" t="s">
+        <v>429</v>
+      </c>
+      <c r="C93" t="s">
+        <v>400</v>
+      </c>
+      <c r="D93" t="s">
+        <v>278</v>
+      </c>
+      <c r="E93" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>374</v>
+      </c>
+      <c r="B94" t="s">
+        <v>430</v>
+      </c>
+      <c r="C94" t="s">
+        <v>400</v>
+      </c>
+      <c r="D94" t="s">
+        <v>278</v>
+      </c>
+      <c r="E94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" t="s">
+        <v>431</v>
+      </c>
+      <c r="C95" t="s">
+        <v>399</v>
+      </c>
+      <c r="D95" t="s">
+        <v>278</v>
+      </c>
+      <c r="E95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" t="s">
+        <v>401</v>
+      </c>
+      <c r="D96" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A68" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
